--- a/INTLINE/data/566/BSP/extdebt_historical.xlsx
+++ b/INTLINE/data/566/BSP/extdebt_historical.xlsx
@@ -1,37 +1,435 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="extdebt" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="extdebt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+  <si>
+    <t>1990-Q4</t>
+  </si>
+  <si>
+    <t>1991-Q1</t>
+  </si>
+  <si>
+    <t>1991-Q2</t>
+  </si>
+  <si>
+    <t>1991-Q3</t>
+  </si>
+  <si>
+    <t>1991-Q4</t>
+  </si>
+  <si>
+    <t>1992-Q1</t>
+  </si>
+  <si>
+    <t>1992-Q2</t>
+  </si>
+  <si>
+    <t>1992-Q3</t>
+  </si>
+  <si>
+    <t>1992-Q4</t>
+  </si>
+  <si>
+    <t>1993-Q1</t>
+  </si>
+  <si>
+    <t>1993-Q2</t>
+  </si>
+  <si>
+    <t>1993-Q3</t>
+  </si>
+  <si>
+    <t>1993-Q4</t>
+  </si>
+  <si>
+    <t>1994-Q1</t>
+  </si>
+  <si>
+    <t>1994-Q2</t>
+  </si>
+  <si>
+    <t>1994-Q3</t>
+  </si>
+  <si>
+    <t>1994-Q4</t>
+  </si>
+  <si>
+    <t>1995-Q1</t>
+  </si>
+  <si>
+    <t>1995-Q2</t>
+  </si>
+  <si>
+    <t>1995-Q3</t>
+  </si>
+  <si>
+    <t>1995-Q4</t>
+  </si>
+  <si>
+    <t>1996-Q1</t>
+  </si>
+  <si>
+    <t>1996-Q2</t>
+  </si>
+  <si>
+    <t>1996-Q3</t>
+  </si>
+  <si>
+    <t>1996-Q4</t>
+  </si>
+  <si>
+    <t>1997-Q1</t>
+  </si>
+  <si>
+    <t>1997-Q2</t>
+  </si>
+  <si>
+    <t>1997-Q3</t>
+  </si>
+  <si>
+    <t>1997-Q4</t>
+  </si>
+  <si>
+    <t>1998-Q1</t>
+  </si>
+  <si>
+    <t>1998-Q2</t>
+  </si>
+  <si>
+    <t>1998-Q3</t>
+  </si>
+  <si>
+    <t>1998-Q4</t>
+  </si>
+  <si>
+    <t>1999-Q1</t>
+  </si>
+  <si>
+    <t>1999-Q2</t>
+  </si>
+  <si>
+    <t>1999-Q3</t>
+  </si>
+  <si>
+    <t>1999-Q4</t>
+  </si>
+  <si>
+    <t>2000-Q1</t>
+  </si>
+  <si>
+    <t>2000-Q2</t>
+  </si>
+  <si>
+    <t>2000-Q3</t>
+  </si>
+  <si>
+    <t>2000-Q4</t>
+  </si>
+  <si>
+    <t>2001-Q1</t>
+  </si>
+  <si>
+    <t>2001-Q2</t>
+  </si>
+  <si>
+    <t>2001-Q3</t>
+  </si>
+  <si>
+    <t>2001-Q4</t>
+  </si>
+  <si>
+    <t>2002-Q1</t>
+  </si>
+  <si>
+    <t>2002-Q2</t>
+  </si>
+  <si>
+    <t>2002-Q3</t>
+  </si>
+  <si>
+    <t>2002-Q4</t>
+  </si>
+  <si>
+    <t>2003-Q1</t>
+  </si>
+  <si>
+    <t>2003-Q2</t>
+  </si>
+  <si>
+    <t>2003-Q3</t>
+  </si>
+  <si>
+    <t>2003-Q4</t>
+  </si>
+  <si>
+    <t>2004-Q1</t>
+  </si>
+  <si>
+    <t>2004-Q2</t>
+  </si>
+  <si>
+    <t>2004-Q3</t>
+  </si>
+  <si>
+    <t>2004-Q4</t>
+  </si>
+  <si>
+    <t>2005-Q1</t>
+  </si>
+  <si>
+    <t>2005-Q2</t>
+  </si>
+  <si>
+    <t>2005-Q3</t>
+  </si>
+  <si>
+    <t>2005-Q4</t>
+  </si>
+  <si>
+    <t>2006-Q1</t>
+  </si>
+  <si>
+    <t>2006-Q2</t>
+  </si>
+  <si>
+    <t>2006-Q3</t>
+  </si>
+  <si>
+    <t>2006-Q4</t>
+  </si>
+  <si>
+    <t>2007-Q1</t>
+  </si>
+  <si>
+    <t>2007-Q2</t>
+  </si>
+  <si>
+    <t>2007-Q3</t>
+  </si>
+  <si>
+    <t>2007-Q4</t>
+  </si>
+  <si>
+    <t>2008-Q1</t>
+  </si>
+  <si>
+    <t>2008-Q2</t>
+  </si>
+  <si>
+    <t>2008-Q3</t>
+  </si>
+  <si>
+    <t>2008-Q4</t>
+  </si>
+  <si>
+    <t>2009-Q1</t>
+  </si>
+  <si>
+    <t>2009-Q2</t>
+  </si>
+  <si>
+    <t>2009-Q3</t>
+  </si>
+  <si>
+    <t>2009-Q4</t>
+  </si>
+  <si>
+    <t>2010-Q1</t>
+  </si>
+  <si>
+    <t>2010-Q2</t>
+  </si>
+  <si>
+    <t>2010-Q3</t>
+  </si>
+  <si>
+    <t>2010-Q4</t>
+  </si>
+  <si>
+    <t>2011-Q1</t>
+  </si>
+  <si>
+    <t>2011-Q2</t>
+  </si>
+  <si>
+    <t>2011-Q3</t>
+  </si>
+  <si>
+    <t>2011-Q4</t>
+  </si>
+  <si>
+    <t>2012-Q1</t>
+  </si>
+  <si>
+    <t>2012-Q2</t>
+  </si>
+  <si>
+    <t>2012-Q3</t>
+  </si>
+  <si>
+    <t>2012-Q4</t>
+  </si>
+  <si>
+    <t>2013-Q1</t>
+  </si>
+  <si>
+    <t>2013-Q2</t>
+  </si>
+  <si>
+    <t>2013-Q3</t>
+  </si>
+  <si>
+    <t>2013-Q4</t>
+  </si>
+  <si>
+    <t>2014-Q1</t>
+  </si>
+  <si>
+    <t>2014-Q2</t>
+  </si>
+  <si>
+    <t>2014-Q3</t>
+  </si>
+  <si>
+    <t>2014-Q4</t>
+  </si>
+  <si>
+    <t>2015-Q1</t>
+  </si>
+  <si>
+    <t>2015-Q2</t>
+  </si>
+  <si>
+    <t>2015-Q3</t>
+  </si>
+  <si>
+    <t>2015-Q4</t>
+  </si>
+  <si>
+    <t>2016-Q1</t>
+  </si>
+  <si>
+    <t>2016-Q2</t>
+  </si>
+  <si>
+    <t>2016-Q3</t>
+  </si>
+  <si>
+    <t>2016-Q4</t>
+  </si>
+  <si>
+    <t>2017-Q1</t>
+  </si>
+  <si>
+    <t>2017-Q2</t>
+  </si>
+  <si>
+    <t>2017-Q3</t>
+  </si>
+  <si>
+    <t>2017-Q4</t>
+  </si>
+  <si>
+    <t>2018-Q1</t>
+  </si>
+  <si>
+    <t>2018-Q2</t>
+  </si>
+  <si>
+    <t>2018-Q3</t>
+  </si>
+  <si>
+    <t>2018-Q4</t>
+  </si>
+  <si>
+    <t>2019-Q1</t>
+  </si>
+  <si>
+    <t>2019-Q2</t>
+  </si>
+  <si>
+    <t>2019-Q3</t>
+  </si>
+  <si>
+    <t>2019-Q4</t>
+  </si>
+  <si>
+    <t>2020-Q1</t>
+  </si>
+  <si>
+    <t>2020-Q2</t>
+  </si>
+  <si>
+    <t>2020-Q3</t>
+  </si>
+  <si>
+    <t>2020-Q4</t>
+  </si>
+  <si>
+    <t>2021-Q1</t>
+  </si>
+  <si>
+    <t>2021-Q2</t>
+  </si>
+  <si>
+    <t>2021-Q3</t>
+  </si>
+  <si>
+    <t>2021-Q4</t>
+  </si>
+  <si>
+    <t>2022-Q1</t>
+  </si>
+  <si>
+    <t>By Type of Debt</t>
+  </si>
+  <si>
+    <t>Medium and Long-Term</t>
+  </si>
+  <si>
+    <t>Short-Term</t>
+  </si>
+  <si>
+    <t>Non-Trade</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +444,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +463,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,2184 +760,1914 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DW5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1990-Q4</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q3</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q3</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q4</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q2</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q3</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q4</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q2</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q3</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q4</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q1</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q2</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q3</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q4</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q1</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q2</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q3</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q4</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q2</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q3</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q4</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q1</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q4</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q2</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q3</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q4</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q1</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q2</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q3</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q4</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q1</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q2</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q3</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q4</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q1</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q2</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q3</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q4</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q1</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q2</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q3</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q4</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q2</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q3</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q4</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q1</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q2</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q3</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q4</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q1</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q2</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q3</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q4</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q1</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q2</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q3</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q4</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q1</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q2</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q3</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q4</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q2</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q3</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q4</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q1</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q2</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q3</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q4</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q1</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q2</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q3</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q4</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q1</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q2</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q3</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q4</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q1</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q2</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q3</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q4</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q1</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q2</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q3</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q4</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q1</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q2</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q3</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q4</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q1</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q2</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q3</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q4</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q1</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q2</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q3</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q4</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q1</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q2</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q3</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q4</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q2</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q3</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
+    <row r="1" spans="1:127">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>By Type of Debt</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:127">
+      <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2">
         <v>28488.0800349</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>27433.3806587473</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>27518.0586863624</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>27902.7405585</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>30099.494427</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>28449.26341325</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>28227.091151</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>28734.72683425</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>30931.2289401</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>32069.17340945</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>32688.84518235</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>33364.54610895</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>34848.39461155</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>34627.6494504</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>35496.102707</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>36336.8062528</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>37520.47265715</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>37805.03760675</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>39480.5934209</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>36248.21412335</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>37870.70757325</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>35830.3131781</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>36425.4962703</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>38698.54546205</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>40050.8221225</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>40399.22375345</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>42574.7009124</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>43789.59724635</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>43129.9651949</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>43921.7119638</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>44283.3247701</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>45042.1073605</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>46309.6159151</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>47810.02968235</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>47219.1727892</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>50188.7935362</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>51156.65644825</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>51562.3801947</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>51302.7755537</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>50986.47923215</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>51358.1734323</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>49218.9122238</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>50330.9412987</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>51916.35465395</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>52046.78432965</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>53201.7165055</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>54723.0417932</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>53333.82123115</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>53802.098088</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>55705.77415525</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>56090.77853695</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>56326.48487945</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>57567.4634785</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>56890.30731425</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>56501.92122415</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>55781.61059155</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>55027.08811955</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>61722.524</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>62316.482</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>61359.084</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>61554.932</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>61984.018</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>60486.461</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>61765.551</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>61372.418</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>62412.491</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>64750.662</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>65903.45699999999</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>66508.28599999999</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>66387.36</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>66567.86199999999</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>65705.07799999999</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>65227.991</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>63802.632</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>62039.535</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>64773.825</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="BZ2">
         <v>64738.416</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CA2">
         <v>67085.80100000001</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CB2">
         <v>67584.882</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CC2">
         <v>71299.719</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CD2">
         <v>73593.81600000001</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CE2">
         <v>74823.67</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CF2">
         <v>75005.67999999999</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CG2">
         <v>78224.97199999999</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CH2">
         <v>75569.44</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CI2">
         <v>76952.924</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CJ2">
         <v>76985.448</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CK2">
         <v>79690.43700000001</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CL2">
         <v>79949.416</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CM2">
         <v>78648.088</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CN2">
         <v>77476.235</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CO2">
         <v>78647.147</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CP2">
         <v>78489.023</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CQ2">
         <v>78932.98299999999</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CR2">
         <v>78596.071</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CS2">
         <v>77094.258</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CT2">
         <v>77673.708</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CU2">
         <v>75318.637</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CV2">
         <v>74997.69</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CW2">
         <v>75606.93799999999</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CX2">
         <v>77474.072</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CY2">
         <v>77639.69500000001</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="CZ2">
         <v>77720.86</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DA2">
         <v>76621.97500000001</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DB2">
         <v>74762.92</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DC2">
         <v>73804.79399999999</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DD2">
         <v>72493.20299999999</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DE2">
         <v>72367.898</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DF2">
         <v>73097.87119999999</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DG2">
         <v>73196.1621</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DH2">
         <v>72198.79489999999</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DI2">
         <v>76414.97319999999</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DJ2">
         <v>78959.57000000001</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DK2">
         <v>80431.40949999999</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DL2">
         <v>81258.5444</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DM2">
         <v>82673.6179</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DN2">
         <v>83617.93060000001</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DO2">
         <v>81420.947</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DP2">
         <v>87453.3895</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DQ2">
         <v>91978.73050000001</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DR2">
         <v>98488.0062</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DS2">
         <v>97047.4017</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DT2">
         <v>101185.8217</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DU2">
         <v>105929.1928</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DV2">
         <v>106428.2556</v>
       </c>
-      <c r="DW2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Medium and Long-Term</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:127">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3">
         <v>25359.6500349</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>23990.7706587473</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>23827.4686863624</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>24253.8105585</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>26364.134427</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>24497.23341325</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>24067.861151</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>24606.0668342499</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>26545.1889401</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>26962.10340945</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>28097.79518235</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>28572.15610895</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>30367.60461155</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>30159.3194504</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>31003.072707</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>31595.9862528</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>33319.12265715</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>33279.09760675</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>34073.5734209</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>31960.02412335</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>33809.7675732499</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>31602.1131781</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>32483.6862703</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>34356.89546205</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>34619.7921225</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>34617.58375345</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>36147.1709124</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>37526.44724635</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>36783.7651949</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>36671.3419638</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>37394.7318701</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>38257.2969605</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>40452.4554151</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>41654.23518235</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>41396.0806892</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>44346.2439362</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>46207.50654825</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>46137.9534947</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>45883.4053537</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>45947.76793215</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>45862.8864323</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>44428.4852238</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>45212.6383987</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>46350.42545395</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>46045.95722965</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>47675.7258055</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>48955.8459932</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>47633.05223115</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>48243.558188</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>49296.22085525</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>49794.16583695</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>50003.58487945</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>51388.6601784999</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>49400.28311425</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>49868.39522415</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>50062.89889155</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>49981.07561955</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>53452.504</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>53542.942</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>52777.133</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>52276.562</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>53470.276</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>52462.729</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>53697.227</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>53854.085</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>54812.91</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>56124.117</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>56433.784</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>56703.797</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>56899.605</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>54552.661</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>53924.813</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>55356.652</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>54371.848</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>53719.584</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>56897.633</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3">
         <v>58248.27</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CA3">
         <v>59124.648</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CB3">
         <v>59417.136</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CC3">
         <v>62720.215</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CD3">
         <v>63082.168</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CE3">
         <v>63584.631</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CF3">
         <v>64003.795</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CG3">
         <v>65433.641</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CH3">
         <v>63519.07</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CI3">
         <v>64811.311</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CJ3">
         <v>64246.637</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CK3">
         <v>64528.37</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CL3">
         <v>63497.397</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CM3">
         <v>61971.028</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CN3">
         <v>62110.426</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CO3">
         <v>63127.311</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CP3">
         <v>61580.304</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CQ3">
         <v>62140.059</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CR3">
         <v>63343.259</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CS3">
         <v>62871.7</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CT3">
         <v>61425.628</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CU3">
         <v>62222.05</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="CV3">
         <v>61788.044</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CW3">
         <v>61054.734</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CX3">
         <v>62375.05</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CY3">
         <v>63326.317</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="CZ3">
         <v>63181.02</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DA3">
         <v>62533.979</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DB3">
         <v>60236.738</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DC3">
         <v>58744.025</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DD3">
         <v>57942.348</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DE3">
         <v>58150.005</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DF3">
         <v>58823.2098</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DG3">
         <v>60348.9098</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DH3">
         <v>60097.6461</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DI3">
         <v>62930.3863</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DJ3">
         <v>62891.7818</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DK3">
         <v>63627.008</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DL3">
         <v>65676.4421</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DM3">
         <v>66762.6529</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DN3">
         <v>66409.7466</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DO3">
         <v>68090.8751</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DP3">
         <v>76716.8884</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DQ3">
         <v>80772.6137</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DR3">
         <v>84279.3285</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DS3">
         <v>83391.72629999999</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DT3">
         <v>87051.9957</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DU3">
         <v>93570.5523</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DV3">
         <v>91338.698</v>
       </c>
-      <c r="DW3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Short-Term</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:127">
+      <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4">
         <v>3128.43</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3442.61</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3690.59</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3648.93</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>3735.36</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>3952.03</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>4159.23</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>4128.66</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>4386.04</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>5107.07</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>4591.05</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>4792.39</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>4480.79</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>4468.33</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>4493.03</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>4740.82</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>4201.35</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>4525.94</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>5407.02</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>4288.19</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>4060.94</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>4228.2</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>3941.81</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>4341.65</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>5431.03</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>5781.64</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>6427.53</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>6263.15</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>6346.2</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>7250.37</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>6888.5929</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>6784.8104</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>5857.1605</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>6155.7945</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>5823.0921</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>5842.5496</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>4949.1499</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>5424.4267</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>5419.3702</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>5038.7113</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>5495.287</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>4790.427</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>5118.3029</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>5565.9292</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>6000.8271</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>5525.9907</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>5767.1958</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>5700.769</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>5558.5399</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>6409.5533</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>6296.6127</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>6322.9</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>6178.8033</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>7490.0242</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>6633.526</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>5718.7117</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>5046.0125</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>8270.02</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>8773.540000000001</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>8581.950999999999</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>9278.370000000001</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>8513.742</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>8023.732</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>8068.324</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>7518.333</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>7599.581</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>8626.545</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>9469.673000000001</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>9804.489</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>9487.755999999999</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>12015.201</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>11780.265</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>9871.339</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>9430.782999999999</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>8319.951999999999</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>7876.192</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="BZ4">
         <v>6490.146</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CA4">
         <v>7961.154</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CB4">
         <v>8167.746</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CC4">
         <v>8579.504999999999</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CD4">
         <v>10511.648</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CE4">
         <v>11239.039</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CF4">
         <v>11001.885</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CG4">
         <v>12791.331</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CH4">
         <v>12050.37</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CI4">
         <v>12141.613</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CJ4">
         <v>12738.81</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CK4">
         <v>15162.067</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CL4">
         <v>16452.02</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CM4">
         <v>16677.06</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CN4">
         <v>15365.809</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CO4">
         <v>15519.836</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CP4">
         <v>16908.72</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CQ4">
         <v>16792.925</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CR4">
         <v>15252.811</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CS4">
         <v>14222.558</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CT4">
         <v>16248.08</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="CU4">
         <v>13096.587</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="CV4">
         <v>13209.646</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CW4">
         <v>14552.204</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="CX4">
         <v>15099.022</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="CY4">
         <v>14313.378</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="CZ4">
         <v>14539.84</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DA4">
         <v>14087.995</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DB4">
         <v>14526.183</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DC4">
         <v>15060.769</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DD4">
         <v>14550.855</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DE4">
         <v>14217.893</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DF4">
         <v>14274.6614</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DG4">
         <v>12847.2524</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DH4">
         <v>12101.1488</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DI4">
         <v>13484.587</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DJ4">
         <v>16067.7882</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DK4">
         <v>16804.4015</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DL4">
         <v>15582.1023</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DM4">
         <v>15910.965</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DN4">
         <v>17208.1839</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DO4">
         <v>13330.0719</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DP4">
         <v>10736.5011</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DQ4">
         <v>11206.1167</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DR4">
         <v>14208.6777</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DS4">
         <v>13655.6754</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DT4">
         <v>14133.826</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DU4">
         <v>12358.6405</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DV4">
         <v>15089.5576</v>
       </c>
-      <c r="DW4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Non-Trade</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:127">
+      <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5">
         <v>382.43</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>382.61</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>390.17</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>340</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>320.34</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>322.82</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>332.73</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>312.6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>386.15</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>442.89</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>463.94</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>339</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>985.79</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>1435.33</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>1791.03</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>1745.82</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>800.35</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>1110.94</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>2115.02</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>1253.19</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>1386.94</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>1375.2</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>1231.81</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>1227.65</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>1335.03</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>1169.64</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>1914.53</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>2036.15</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>2314.2</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>3254.37</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>3548.3053</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>3786.8503</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>3306.1498</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>3788.7609</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>3944.8014</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>3751.9321</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>3112.7242</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>3537.4015</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>3502.8748</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>3234.8767</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>3855.4578</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>3227.2117</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>3563.637</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>3781.7947</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>4716.2257</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>4135.4649</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>4439.3549</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>4402.7827</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>4503.4479</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>5204.5956</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>4819.8418</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>4904.2</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>4879.4554</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>5551.7343</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>4059.3765</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>3433.4563</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>3371.0032</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>6292.894</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>6691.241</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>6243.613</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>7046.944</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>5744.495</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>5301.802</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>4757.07</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>5366.358</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>5508.069</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>6434.065</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>7034.08</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>7335.213</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>7076.573</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>8629.471</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>8665.700000000001</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>7922.736</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>7250.726</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>5532.31</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>5546.748</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="BZ5">
         <v>4588.815</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CA5">
         <v>4999.089</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CB5">
         <v>4752.693</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CC5">
         <v>5136.596</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CD5">
         <v>7551.366</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CE5">
         <v>8386.366</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CF5">
         <v>8109.142</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CG5">
         <v>10071.899</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CH5">
         <v>9161.748</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CI5">
         <v>8973.482</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CJ5">
         <v>9757.736999999999</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CK5">
         <v>11877.423</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CL5">
         <v>13334.321</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CM5">
         <v>13911.121</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CN5">
         <v>12299.914</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CO5">
         <v>12354.999</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CP5">
         <v>14059.683</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CQ5">
         <v>13330.653</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CR5">
         <v>11909.813</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CS5">
         <v>10882.167</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CT5">
         <v>13762.066</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="CU5">
         <v>10332.597</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="CV5">
         <v>10958.432</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="CW5">
         <v>11996.553</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="CX5">
         <v>12896.47</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="CY5">
         <v>11843.995</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="CZ5">
         <v>12022.286</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DA5">
         <v>11629.795</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DB5">
         <v>12439.574</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DC5">
         <v>12010.844</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DD5">
         <v>12025.415</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DE5">
         <v>11249.868</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DF5">
         <v>11776.8361</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DG5">
         <v>9868.6782</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DH5">
         <v>9474.2451</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DI5">
         <v>9590.5874</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DJ5">
         <v>13445.1939</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DK5">
         <v>13472.0572</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DL5">
         <v>12701.8104</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DM5">
         <v>13237.961</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DN5">
         <v>13791.6084</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DO5">
         <v>11176.0677</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DP5">
         <v>8758.9915</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DQ5">
         <v>9107.591200000001</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DR5">
         <v>11989.398</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DS5">
         <v>11202.1781</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DT5">
         <v>11411.7986</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DU5">
         <v>9880.9354</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DV5">
         <v>12658.2207</v>
       </c>
-      <c r="DW5" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/566/BSP/extdebt_historical.xlsx
+++ b/INTLINE/data/566/BSP/extdebt_historical.xlsx
@@ -1379,7 +1379,9 @@
       <c r="DV2" t="n">
         <v>106428.2556</v>
       </c>
-      <c r="DW2" t="inlineStr"/>
+      <c r="DW2" t="n">
+        <v>109753.154185796</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1762,7 +1764,9 @@
       <c r="DV3" t="n">
         <v>91338.698</v>
       </c>
-      <c r="DW3" t="inlineStr"/>
+      <c r="DW3" t="n">
+        <v>95755.4981</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2145,7 +2149,9 @@
       <c r="DV4" t="n">
         <v>15089.5576</v>
       </c>
-      <c r="DW4" t="inlineStr"/>
+      <c r="DW4" t="n">
+        <v>13997.6561</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2528,7 +2534,9 @@
       <c r="DV5" t="n">
         <v>12658.2207</v>
       </c>
-      <c r="DW5" t="inlineStr"/>
+      <c r="DW5" t="n">
+        <v>10949.8756</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
